--- a/3_output/effective_allowance_women.xlsx
+++ b/3_output/effective_allowance_women.xlsx
@@ -449,10 +449,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>5396038.365459139</v>
+        <v>5396038.387775409</v>
       </c>
       <c r="C2" t="n">
-        <v>3254072.486202735</v>
+        <v>3254072.499261443</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +460,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>4381134.891699171</v>
+        <v>4381134.910036677</v>
       </c>
       <c r="C3" t="n">
-        <v>2676245.168688729</v>
+        <v>2676245.17972806</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>3530383.138932878</v>
+        <v>3530383.154477372</v>
       </c>
       <c r="C4" t="n">
-        <v>2165183.780798187</v>
+        <v>2165183.790156101</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +482,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>2824199.940081419</v>
+        <v>2824199.952781661</v>
       </c>
       <c r="C5" t="n">
-        <v>1736091.586933662</v>
+        <v>1736091.594365403</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>2237161.705503607</v>
+        <v>2237161.716403027</v>
       </c>
       <c r="C6" t="n">
-        <v>1407432.013461018</v>
+        <v>1407432.01983898</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>1755843.321754896</v>
+        <v>1755843.330656678</v>
       </c>
       <c r="C7" t="n">
-        <v>1144122.856815262</v>
+        <v>1144122.862354978</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +515,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>1356866.909168755</v>
+        <v>1356866.917033253</v>
       </c>
       <c r="C8" t="n">
-        <v>898131.2625148844</v>
+        <v>898131.2674090829</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>1034478.341920666</v>
+        <v>1034478.348430869</v>
       </c>
       <c r="C9" t="n">
-        <v>693138.3636400766</v>
+        <v>693138.3674496217</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +537,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>771673.2084351802</v>
+        <v>771673.2146515966</v>
       </c>
       <c r="C10" t="n">
-        <v>561798.9973610784</v>
+        <v>561799.0009987096</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +575,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>9609067.101321811</v>
+        <v>9609067.156732054</v>
       </c>
       <c r="C2" t="n">
-        <v>6092283.794683363</v>
+        <v>6092283.829264163</v>
       </c>
     </row>
     <row r="3">
@@ -586,10 +586,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>7315564.252815049</v>
+        <v>7315564.295489731</v>
       </c>
       <c r="C3" t="n">
-        <v>4675990.02042286</v>
+        <v>4675990.047369255</v>
       </c>
     </row>
     <row r="4">
@@ -597,10 +597,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>5541247.799440122</v>
+        <v>5541247.832785041</v>
       </c>
       <c r="C4" t="n">
-        <v>3554903.58173156</v>
+        <v>3554903.602786792</v>
       </c>
     </row>
     <row r="5">
@@ -608,10 +608,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>4175948.545053763</v>
+        <v>4175948.570717078</v>
       </c>
       <c r="C5" t="n">
-        <v>2687882.128734548</v>
+        <v>2687882.144750684</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>3125540.520357776</v>
+        <v>3125540.540659231</v>
       </c>
       <c r="C6" t="n">
-        <v>2047792.086260555</v>
+        <v>2047792.098930425</v>
       </c>
     </row>
     <row r="7">
@@ -630,10 +630,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>2323786.968081366</v>
+        <v>2323786.983797015</v>
       </c>
       <c r="C7" t="n">
-        <v>1564670.277959715</v>
+        <v>1564670.288103518</v>
       </c>
     </row>
     <row r="8">
@@ -641,10 +641,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>1707070.153758971</v>
+        <v>1707070.166557186</v>
       </c>
       <c r="C8" t="n">
-        <v>1166596.267522134</v>
+        <v>1166596.275782854</v>
       </c>
     </row>
     <row r="9">
@@ -652,10 +652,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>1240755.400849218</v>
+        <v>1240755.410965499</v>
       </c>
       <c r="C9" t="n">
-        <v>860152.5215520067</v>
+        <v>860152.5278654448</v>
       </c>
     </row>
     <row r="10">
@@ -663,10 +663,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>886072.2618324413</v>
+        <v>886072.270736531</v>
       </c>
       <c r="C10" t="n">
-        <v>661901.2269975258</v>
+        <v>661901.2325544505</v>
       </c>
     </row>
   </sheetData>
@@ -701,10 +701,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>14840013.43669125</v>
+        <v>14840013.54569339</v>
       </c>
       <c r="C2" t="n">
-        <v>9744841.203839581</v>
+        <v>9744841.274723567</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +712,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>10759663.64326508</v>
+        <v>10759663.72303409</v>
       </c>
       <c r="C3" t="n">
-        <v>7105722.996691827</v>
+        <v>7105723.048881469</v>
       </c>
     </row>
     <row r="4">
@@ -723,10 +723,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>7774491.603096508</v>
+        <v>7774491.661989572</v>
       </c>
       <c r="C4" t="n">
-        <v>5150401.500687548</v>
+        <v>5150401.5392189</v>
       </c>
     </row>
     <row r="5">
@@ -734,10 +734,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>5598133.30490405</v>
+        <v>5598133.348090506</v>
       </c>
       <c r="C5" t="n">
-        <v>3720812.865520402</v>
+        <v>3720812.893604513</v>
       </c>
     </row>
     <row r="6">
@@ -745,10 +745,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>4012165.540813596</v>
+        <v>4012165.573093521</v>
       </c>
       <c r="C6" t="n">
-        <v>2705266.739491237</v>
+        <v>2705266.760482842</v>
       </c>
     </row>
     <row r="7">
@@ -756,10 +756,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>2862299.708264619</v>
+        <v>2862299.732163657</v>
       </c>
       <c r="C7" t="n">
-        <v>1973962.627942103</v>
+        <v>1973962.643821897</v>
       </c>
     </row>
     <row r="8">
@@ -767,10 +767,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>2023092.721954148</v>
+        <v>2023092.740343568</v>
       </c>
       <c r="C8" t="n">
-        <v>1414637.419472496</v>
+        <v>1414637.431691407</v>
       </c>
     </row>
     <row r="9">
@@ -778,10 +778,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>1418280.890241348</v>
+        <v>1418280.904214268</v>
       </c>
       <c r="C9" t="n">
-        <v>1006571.70310023</v>
+        <v>1006571.712186806</v>
       </c>
     </row>
     <row r="10">
@@ -789,10 +789,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>980199.5429432049</v>
+        <v>980199.5545637447</v>
       </c>
       <c r="C10" t="n">
-        <v>745155.9113982341</v>
+        <v>745155.91895506</v>
       </c>
     </row>
   </sheetData>
@@ -827,10 +827,10 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>21626133.16263681</v>
+        <v>21626133.35700624</v>
       </c>
       <c r="C2" t="n">
-        <v>14610251.32897288</v>
+        <v>14610251.45944575</v>
       </c>
     </row>
     <row r="3">
@@ -838,10 +838,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="n">
-        <v>15032869.9069485</v>
+        <v>15032870.04304473</v>
       </c>
       <c r="C3" t="n">
-        <v>10198168.57933426</v>
+        <v>10198168.67100763</v>
       </c>
     </row>
     <row r="4">
@@ -849,10 +849,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>10426691.4662239</v>
+        <v>10426691.56211157</v>
       </c>
       <c r="C4" t="n">
-        <v>7091930.689166415</v>
+        <v>7091930.753755605</v>
       </c>
     </row>
     <row r="5">
@@ -860,10 +860,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>7216337.435726593</v>
+        <v>7216337.503115845</v>
       </c>
       <c r="C5" t="n">
-        <v>4923183.116728</v>
+        <v>4923183.161963867</v>
       </c>
     </row>
     <row r="6">
@@ -871,10 +871,10 @@
         <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>4979780.917867509</v>
+        <v>4979780.965936203</v>
       </c>
       <c r="C6" t="n">
-        <v>3437922.122434651</v>
+        <v>3437922.154701355</v>
       </c>
     </row>
     <row r="7">
@@ -882,10 +882,10 @@
         <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>3426720.496686807</v>
+        <v>3426720.530882525</v>
       </c>
       <c r="C7" t="n">
-        <v>2411203.133383769</v>
+        <v>2411203.156677582</v>
       </c>
     </row>
     <row r="8">
@@ -893,10 +893,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>2341667.299284689</v>
+        <v>2341667.324394653</v>
       </c>
       <c r="C8" t="n">
-        <v>1668967.134528808</v>
+        <v>1668967.151633487</v>
       </c>
     </row>
     <row r="9">
@@ -904,10 +904,10 @@
         <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>1590707.55754558</v>
+        <v>1590707.575948088</v>
       </c>
       <c r="C9" t="n">
-        <v>1150679.246144584</v>
+        <v>1150679.258497495</v>
       </c>
     </row>
     <row r="10">
@@ -915,10 +915,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>1068469.660677734</v>
+        <v>1068469.675282779</v>
       </c>
       <c r="C10" t="n">
-        <v>823834.5566583776</v>
+        <v>823834.5664621944</v>
       </c>
     </row>
   </sheetData>
